--- a/biology/Médecine/1172_en_santé_et_médecine/1172_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1172_en_santé_et_médecine/1172_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1172_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1172_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1172 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1172_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1172_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Consécutive à un raz-de-marée, une épidémie fait « une grande quantité de victimes » dans le diocèse de Léon en Bretagne[1].
-« À Venise, un tribunal spécial [est] chargé de l'inspection des drogues et un capitolare medicorum et speciatorum [doit] assister à toutes les préparations d'un certain prix[2] ».
-1171-1172 : la peste qui sévit à Constantinople se répand à Venise, rapportée par les navires du doge Vital II Michele[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Consécutive à un raz-de-marée, une épidémie fait « une grande quantité de victimes » dans le diocèse de Léon en Bretagne.
+« À Venise, un tribunal spécial [est] chargé de l'inspection des drogues et un capitolare medicorum et speciatorum [doit] assister à toutes les préparations d'un certain prix ».
+1171-1172 : la peste qui sévit à Constantinople se répand à Venise, rapportée par les navires du doge Vital II Michele.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1172_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1172_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation du couvent cistercien de Holme au Danemark, où des fouilles mettront au jour « toutes sortes d'instruments chirurgicaux » et des squelettes qui « portent trace de trépanation, réduction et appareillage de fractures, perforation d'os à fin de drainage[4] ».
-Fondation par Diarmait mac Cormaic, roi de Desmond, en Irlande, du monastère cistercien de Fons Vivus, probablement doté d'une léproserie[5].
-Une maison-Dieu, fondée par Henri Ier, comte de Champagne, et destinée à l'hébergement des pèlerins de Compostelle, est attestée à Vitry[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation du couvent cistercien de Holme au Danemark, où des fouilles mettront au jour « toutes sortes d'instruments chirurgicaux » et des squelettes qui « portent trace de trépanation, réduction et appareillage de fractures, perforation d'os à fin de drainage ».
+Fondation par Diarmait mac Cormaic, roi de Desmond, en Irlande, du monastère cistercien de Fons Vivus, probablement doté d'une léproserie.
+Une maison-Dieu, fondée par Henri Ier, comte de Champagne, et destinée à l'hébergement des pèlerins de Compostelle, est attestée à Vitry.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1172_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1172_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ibn al-Kifti (mort en 1249), vizir du sultan d'Alep, Malik an-Naser, et historien dont, selon  Dechambre, « les écrits attestent qu'il était initié à la science médicale[7] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ibn al-Kifti (mort en 1249), vizir du sultan d'Alep, Malik an-Naser, et historien dont, selon  Dechambre, « les écrits attestent qu'il était initié à la science médicale ».</t>
         </is>
       </c>
     </row>
